--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_26.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_26.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N746"/>
+  <dimension ref="A1:N747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.563539981842041</v>
+        <v>0.001009941101074219</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01490378379821777</v>
+        <v>0.0006017684936523438</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02151608467102051</v>
+        <v>0.02822518348693848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 1), (3, 4), (4, 4), (1, 5), (3, 3), (1, 3), (2, 4), (2, 2), (0, 5), (0, 4), (2, 3), (1, 4), (2, 0), (3, 0), (3, 1), (2, 5), (4, 0), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 2], [4, 1], [3, 4], [4, 4], [1, 5], [3, 3], [1, 3], [2, 4], [2, 2], [0, 5], [0, 4], [2, 3], [1, 4], [2, 0], [3, 0], [3, 1], [2, 5], [4, 0], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[(3, 4), (4, 1), (1, 5), (4, 4), (0, 4), (3, 3), (0, 0), (2, 4), (2, 3), (0, 5), (1, 4), (2, 5), (3, 5), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[3, 4], [4, 1], [1, 5], [4, 4], [0, 4], [3, 3], [0, 0], [2, 4], [2, 3], [0, 5], [1, 4], [2, 5], [3, 5], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[(3, 4), (4, 1), (3, 2), (4, 4), (2, 5), (3, 3), (3, 0), (3, 5), (4, 3), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4)]</t>
+          <t>[[3, 4], [4, 1], [3, 2], [4, 4], [2, 5], [3, 3], [3, 0], [3, 5], [4, 3], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 1), (3, 0), (4, 4), (4, 5), (3, 3), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5)]</t>
+          <t>[[3, 2], [4, 1], [3, 0], [4, 4], [4, 5], [3, 3], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3)]</t>
+          <t>[[3, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 4), (3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[(3, 4), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[(2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 5), (3, 0), (3, 5), (3, 3), (3, 2), (3, 1), (4, 3), (4, 2), (4, 0)]</t>
+          <t>[[2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 5], [3, 0], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (2, 3), (1, 5), (2, 5), (2, 1), (0, 5), (3, 5), (3, 4), (3, 0), (3, 3), (2, 2), (3, 2), (3, 1), (4, 3), (4, 2), (4, 0)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 5], [2, 1], [0, 5], [3, 5], [3, 4], [3, 0], [3, 3], [2, 2], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 0), (0, 2), (0, 0), (1, 1), (0, 1), (1, 2), (2, 0), (2, 2), (1, 5), (0, 4), (2, 3), (2, 5), (3, 4), (3, 1), (0, 5), (2, 4), (1, 3), (3, 0), (1, 4), (0, 3), (3, 2), (3, 3), (4, 3), (4, 2), (4, 0)]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 4], [3, 1], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [3, 2], [3, 3], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -6362,7 +6362,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[(0, 2), (0, 1), (0, 0), (0, 3), (1, 3), (0, 5), (2, 1), (2, 0), (2, 2), (2, 4), (2, 3), (2, 5), (3, 4), (3, 2), (3, 1), (3, 5), (3, 3), (4, 2), (3, 0), (4, 3), (1, 4), (1, 5), (0, 4), (1, 0), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 2], [3, 1], [3, 5], [3, 3], [4, 2], [3, 0], [4, 3], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -6557,110 +6557,120 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B742" t="n">
-        <v>104</v>
+        <v>0.993551415633128</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B743" t="n">
-        <v>617</v>
+        <v>104</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B744" t="n">
-        <v>11</v>
+        <v>617</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B745" t="n">
-        <v>1.654495000839233</v>
+        <v>11</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0.1039919853210449</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B746" t="inlineStr">
+      <c r="B747" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr">
+      <c r="C747" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D746" t="inlineStr">
+      <c r="D747" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E746" t="inlineStr">
+      <c r="E747" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F746" t="inlineStr">
+      <c r="F747" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G746" t="inlineStr">
+      <c r="G747" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H746" t="inlineStr">
+      <c r="H747" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I746" t="inlineStr">
+      <c r="I747" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J746" t="inlineStr">
+      <c r="J747" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K746" t="inlineStr">
+      <c r="K747" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L746" t="inlineStr">
+      <c r="L747" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M746" t="inlineStr">
+      <c r="M747" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N746" t="inlineStr">
+      <c r="N747" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_26.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_26.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N747"/>
+  <dimension ref="A1:N776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001009941101074219</v>
+        <v>0.0009458065032958984</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0006017684936523438</v>
+        <v>0.0003900527954101562</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02822518348693848</v>
+        <v>0.08890771865844727</v>
       </c>
     </row>
     <row r="8">
@@ -1601,11 +1601,6 @@
           <t>[24, 11]</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>[19, 15]</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1662,11 +1657,6 @@
           <t>[24, 11]</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>[19, 15]</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1685,35 +1675,40 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>[20, 14]</t>
+          <t>[19, 15]</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[21, 13]</t>
+          <t>[20, 14]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>[22, 12]</t>
+          <t>[21, 13]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[23, 11]</t>
+          <t>[22, 12]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>[24, 10]</t>
+          <t>[23, 11]</t>
         </is>
       </c>
     </row>
@@ -1734,35 +1729,40 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>[20, 14]</t>
+          <t>[19, 15]</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>[24, 10]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>[21, 13]</t>
+          <t>[20, 14]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>[22, 12]</t>
+          <t>[21, 13]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>[23, 11]</t>
+          <t>[22, 12]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[24, 10]</t>
+          <t>[23, 11]</t>
         </is>
       </c>
     </row>
@@ -1940,11 +1940,6 @@
           <t>[19, 14]</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>[25, 8]</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1980,11 +1975,6 @@
           <t>[24, 9]</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>[18, 14]</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -1994,7 +1984,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[24, 8]</t>
+          <t>[25, 8]</t>
         </is>
       </c>
     </row>
@@ -2046,11 +2036,6 @@
           <t>[24, 9]</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>[18, 14]</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2062,288 +2047,278 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[19, 13]</t>
+          <t>[18, 14]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[20, 12]</t>
+          <t>[19, 13]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[21, 11]</t>
+          <t>[20, 12]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[22, 10]</t>
+          <t>[21, 11]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[23, 9]</t>
+          <t>[22, 10]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[25, 7]</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>[17, 14]</t>
+          <t>[23, 9]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[17, 15]</t>
+          <t>[24, 8]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[19, 13]</t>
+          <t>[25, 7]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[20, 12]</t>
+          <t>[17, 15]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[21, 11]</t>
+          <t>[18, 14]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[22, 10]</t>
+          <t>[19, 13]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[23, 9]</t>
+          <t>[20, 12]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[24, 8]</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>[17, 14]</t>
+          <t>[21, 11]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[25, 7]</t>
+          <t>[22, 10]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[16, 15]</t>
+          <t>[23, 9]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[18, 13]</t>
+          <t>[24, 8]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[19, 12]</t>
+          <t>[25, 7]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[20, 11]</t>
+          <t>[16, 15]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[21, 10]</t>
+          <t>[17, 14]</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>[24, 7]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[22, 9]</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>[17, 13]</t>
+          <t>[18, 13]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[23, 8]</t>
+          <t>[19, 12]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[24, 7]</t>
+          <t>[20, 11]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[25, 6]</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>[16, 14]</t>
+          <t>[21, 10]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[16, 15]</t>
+          <t>[22, 9]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[18, 13]</t>
+          <t>[23, 8]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[19, 12]</t>
+          <t>[25, 6]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[20, 11]</t>
+          <t>[16, 15]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[21, 10]</t>
+          <t>[17, 14]</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[24, 7]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[22, 9]</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>[17, 13]</t>
+          <t>[18, 13]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[23, 8]</t>
+          <t>[19, 12]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[24, 7]</t>
+          <t>[20, 11]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[25, 6]</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>[16, 14]</t>
+          <t>[21, 10]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[22, 9]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[23, 8]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[25, 6]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[16, 14]</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
+          <t>[17, 13]</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>[22, 8]</t>
         </is>
       </c>
@@ -2351,55 +2326,65 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[25, 5]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[18, 12]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[19, 11]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[20, 10]</t>
+          <t>[25, 5]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[21, 9]</t>
+          <t>[16, 14]</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>[24, 6]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>[17, 13]</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
           <t>[22, 8]</t>
         </is>
       </c>
@@ -2407,555 +2392,505 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[23, 7]</t>
+          <t>[18, 12]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[24, 6]</t>
+          <t>[19, 11]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[25, 5]</t>
+          <t>[20, 10]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[15, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>[12, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>[0, [3, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>[8, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>[10, [1, 3], [1, 2]]</t>
+          <t>[21, 9]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[24, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>[17, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>[9, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>[25, [3, 5], [4, 3]]</t>
+          <t>[23, 7]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[11, [2, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>[4, [4, 5], [3, 4]]</t>
+          <t>[25, 5]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[2, [3, 0], [3, 2]]</t>
+          <t>[15, [0, 2], [0, 0]]</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[20, [2, 2], [1, 4]]</t>
+          <t>[12, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>[0, [3, 2], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>[8, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[10, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[6, [3, 4], [1, 5]]</t>
+          <t>[24, [2, 5], [3, 3]]</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>[19, [2, 1], [0, 3]]</t>
+          <t>[17, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[7, [2, 4], [0, 5]]</t>
+          <t>[9, [0, 5], [2, 3]]</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[13, [2, 0], [0, 2]]</t>
+          <t>[25, [3, 5], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[23, [0, 4], [3, 5]]</t>
+          <t>[11, [2, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[4, [4, 5], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[14, [1, 0], [0, 1]]</t>
+          <t>[2, [3, 0], [3, 2]]</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>[5, [3, 3], [2, 4]]</t>
+          <t>[20, [2, 2], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[22, [1, 4], [2, 5]]</t>
+          <t>[6, [3, 4], [1, 5]]</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>[18, [1, 1], [2, 2]]</t>
+          <t>[19, [2, 1], [0, 3]]</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[21, [0, 3], [0, 4]]</t>
+          <t>[7, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>[13, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[16, [0, 1], [1, 1]]</t>
+          <t>[23, [0, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[[3, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
+          <t>[14, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[5, [3, 3], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[15, 14]</t>
+          <t>[22, [1, 4], [2, 5]]</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>[23, 6]</t>
+          <t>[18, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>[21, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[16, 13]</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>[23, 3]</t>
+          <t>[16, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>[23, 6]</t>
+          <t>[[3, 0], [4, 1], [3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>[16, 12]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[25, 4]</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>[15, 14]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[16, 13]</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>[23, 3]</t>
+          <t>[22, 7]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[18, 11]</t>
+          <t>[25, 4]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[19, 10]</t>
+          <t>[15, 14]</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>[23, 6]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[20, 9]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[21, 8]</t>
+          <t>[17, 12]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[22, 7]</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>[16, 12]</t>
+          <t>[18, 11]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[24, 5]</t>
+          <t>[19, 10]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[25, 4]</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>[15, 12]</t>
+          <t>[20, 9]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>[25, 3]</t>
+          <t>[21, 8]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[22, 7]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[24, 5]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[25, 4]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[15, 13]</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>[25, 3]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[21, 7]</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>[25, 1]</t>
+          <t>[16, 12]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>[15, 12]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[15, 13]</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>[25, 3]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[17, 11]</t>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[18, 10]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[19, 9]</t>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[20, 8]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[21, 7]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>[25, 1]</t>
+          <t>[25, 3]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[22, 6]</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>[14, 12]</t>
+          <t>[16, 12]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[23, 5]</t>
+          <t>[17, 11]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[24, 4]</t>
+          <t>[18, 10]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
+          <t>[19, 9]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[20, 8]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
+          <t>[21, 7]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[22, 6]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[23, 5]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[20, 7]</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>[15, 11]</t>
+          <t>[24, 4]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
+          <t>[14, 13]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
+          <t>[15, 12]</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
           <t>[22, 5]</t>
         </is>
       </c>
@@ -2963,86 +2898,81 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>[14, 12]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
+          <t>[17, 10]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[25, 2]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[14, 13]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[17, 10]</t>
+          <t>[21, 6]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[18, 9]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[19, 8]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[20, 7]</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>[15, 11]</t>
+          <t>[25, 2]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[21, 6]</t>
+          <t>[14, 13]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
+          <t>[15, 12]</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
           <t>[22, 5]</t>
         </is>
       </c>
@@ -3050,69 +2980,74 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[23, 4]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[24, 3]</t>
+          <t>[17, 10]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[25, 2]</t>
+          <t>[18, 9]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[19, 8]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[20, 7]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[18, 8]</t>
+          <t>[21, 6]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[19, 7]</t>
+          <t>[23, 4]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
+          <t>[24, 3]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[25, 2]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
+          <t>[14, 12]</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
           <t>[22, 4]</t>
         </is>
       </c>
@@ -3120,7 +3055,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[24, 2]</t>
+          <t>[15, 11]</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
@@ -3155,3522 +3095,3640 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[20, 6]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[21, 5]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[22, 4]</t>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[24, 2]</t>
+          <t>[25, 1]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[13, [0, 2], [0, 0]]</t>
+          <t>[14, 12]</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>[20, [1, 4], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>[19, [0, 3], [0, 4]]</t>
+          <t>[22, 4]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[15, [0, 0], [2, 1]]</t>
+          <t>[15, 11]</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>[22, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>[7, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>[24, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>[23, [3, 5], [4, 3]]</t>
+          <t>[20, 6]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[11, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>[17, [2, 1], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>[4, [3, 4], [1, 5]]</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>[5, [2, 4], [0, 5]]</t>
+          <t>[16, 10]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[25, [4, 3], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>[6, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>[9, [2, 3], [2, 0]]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[3, [4, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>[14, [0, 1], [1, 1]]</t>
+          <t>[18, 8]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[18, [2, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>[2, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>[0, [3, 0], [3, 2]]</t>
+          <t>[19, 7]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[10, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>[8, [1, 3], [1, 2]]</t>
+          <t>[21, 5]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[21, [0, 4], [3, 5]]</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>[1, [4, 1], [4, 4]]</t>
+          <t>[23, 3]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[16, [1, 1], [2, 2]]</t>
+          <t>[24, 2]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[12, [1, 0], [0, 1]]</t>
+          <t>[25, 1]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
+          <t>[13, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>[20, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>[19, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[13, 12]</t>
+          <t>[15, [0, 0], [2, 1]]</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[22, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>[7, [0, 5], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>[24, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>[23, [3, 5], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
+          <t>[11, [2, 0], [0, 2]]</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>[21, 1]</t>
+          <t>[17, [2, 1], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>[4, [3, 4], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>[5, [2, 4], [0, 5]]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[25, [4, 3], [3, 0]]</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[6, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>[9, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[3, [4, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>[14, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[18, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>[2, [3, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>[0, [3, 0], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[10, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[8, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[21, [0, 4], [3, 5]]</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>[1, [4, 1], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[20, 5]</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>[14, 10]</t>
+          <t>[16, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[12, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>[13, 12]</t>
+          <t>[[3, 2], [4, 4], [3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>[17, 5]</t>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[25, 0]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>[21, 1]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[20, 5]</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>[14, 10]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>[13, 10]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>[17, 5]</t>
+          <t>[25, 0]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[25, 0]</t>
+          <t>[13, 12]</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>[21, 4]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>[23, 1]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>[13, 10]</t>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[22, 3]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[23, 2]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[24, 1]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[13, 11]</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>[23, 1]</t>
+          <t>[25, 0]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[15, 9]</t>
+          <t>[13, 11]</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[16, 8]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[17, 7]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[18, 6]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[19, 5]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[20, 4]</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[21, 3]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[22, 2]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[24, 0]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[13, 11]</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>[23, 1]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[14, 10]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[15, 9]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>[13, 9]</t>
+          <t>[16, 8]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
+          <t>[17, 7]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
+          <t>[18, 6]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>[12, 10]</t>
+          <t>[19, 5]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[20, 4]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
+          <t>[21, 3]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[22, 2]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[14, 9]</t>
+          <t>[24, 0]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[15, 8]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[16, 7]</t>
+          <t>[13, 10]</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[18, 5]</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>[13, 9]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[19, 4]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[20, 3]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[21, 2]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[22, 1]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[23, 0]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[12, 11]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[13, 10]</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>[20, 3]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[14, 9]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[15, 8]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[16, 7]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[15, 7]</t>
+          <t>[18, 5]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[16, 6]</t>
+          <t>[19, 4]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[18, 4]</t>
+          <t>[21, 2]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[19, 3]</t>
+          <t>[22, 1]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[20, 2]</t>
+          <t>[23, 0]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[22, 0]</t>
+          <t>[12, 10]</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[2, [3, 4], [1, 5]]</t>
+          <t>[13, 9]</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>[11, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>[17, [0, 3], [0, 4]]</t>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[16, [2, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>[10, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>[0, [3, 2], [3, 4]]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[9, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>[3, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>[15, [2, 1], [0, 3]]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[19, [0, 4], [3, 5]]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[8, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>[20, [2, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>[4, [1, 5], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>[6, [1, 3], [1, 2]]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[5, [0, 5], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>[22, [3, 3], [3, 1]]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[21, [3, 5], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>[13, [0, 0], [2, 1]]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[1, [4, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>[12, [0, 1], [1, 1]]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[18, [1, 4], [2, 5]]</t>
+          <t>[12, 10]</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>[14, [1, 1], [2, 2]]</t>
+          <t>[20, 2]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[7, [2, 3], [2, 0]]</t>
+          <t>[13, 9]</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>[18, 4]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0]]</t>
+          <t>[14, 8]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>[19, 2]</t>
+          <t>[15, 7]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[12, 9]</t>
+          <t>[16, 6]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>[19, 2]</t>
+          <t>[17, 5]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[19, 3]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[21, 1]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[22, 0]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[2, [3, 4], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>[11, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>[17, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[16, [2, 2], [1, 4]]</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[10, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>[0, [3, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[9, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>[3, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>[15, [2, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[19, [0, 4], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[11, 10]</t>
+          <t>[8, [1, 2], [1, 0]]</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
+          <t>[20, [2, 5], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>[4, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>[6, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[12, 9]</t>
+          <t>[5, [0, 5], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>[22, [3, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[13, 8]</t>
+          <t>[21, [3, 5], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>[13, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[14, 7]</t>
+          <t>[1, [4, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>[12, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[15, 6]</t>
+          <t>[18, [1, 4], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>[14, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[7, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[[3, 4], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[18, 3]</t>
+          <t>[11, 10]</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[20, 1]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[21, 0]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>[11, 8]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[11, 10]</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>[19, 2]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[11, 9]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[13, 7]</t>
+          <t>[13, 8]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[14, 6]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[15, 5]</t>
+          <t>[15, 6]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[16, 4]</t>
+          <t>[16, 5]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[18, 2]</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>[11, 8]</t>
+          <t>[18, 3]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[19, 1]</t>
+          <t>[20, 1]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[20, 0]</t>
+          <t>[21, 0]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[10, 9]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[12, 7]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[13, 6]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[14, 5]</t>
+          <t>[13, 7]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[15, 4]</t>
+          <t>[14, 6]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>[11, 7]</t>
+          <t>[15, 5]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[17, 2]</t>
+          <t>[16, 4]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[18, 1]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[19, 0]</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>[10, 8]</t>
+          <t>[18, 2]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[19, 1]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[20, 0]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[11, 8]</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[12, 6]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[13, 5]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[14, 4]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[15, 3]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[16, 2]</t>
+          <t>[10, 9]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[17, 1]</t>
+          <t>[11, 8]</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>[18, 1]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[18, 0]</t>
+          <t>[12, 7]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[11, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>[3, [0, 5], [2, 3]]</t>
+          <t>[13, 6]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[14, [2, 2], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>[25, [3, 0], [4, 0]]</t>
+          <t>[14, 5]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[7, [2, 0], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>[1, [2, 4], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>[13, [2, 1], [0, 3]]</t>
+          <t>[15, 4]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[12, [1, 1], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>[15, [0, 3], [0, 4]]</t>
+          <t>[16, 3]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[6, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>[9, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>[0, [3, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>[4, [1, 3], [1, 2]]</t>
+          <t>[17, 2]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[18, [2, 5], [3, 0]]</t>
+          <t>[19, 0]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[2, [1, 5], [1, 3]]</t>
+          <t>[10, 8]</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>[5, [2, 3], [2, 0]]</t>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[17, [0, 4], [2, 5]]</t>
+          <t>[11, 7]</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[16, [1, 4], [1, 5]]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[8, [1, 0], [0, 1]]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[10, [0, 1], [1, 1]]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[[2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 5], [3, 0], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[10, 8]</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>[18, 0]</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[11, 7]</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[16, 2]</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[13, 5]</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[14, 4]</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[15, 3]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
+          <t>[17, 1]</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[11, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>[3, [0, 5], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>[10, 7]</t>
+          <t>[14, [2, 2], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>[25, [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>[11, 6]</t>
+          <t>[7, [2, 0], [0, 2]]</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>[16, 1]</t>
+          <t>[1, [2, 4], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>[13, [2, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>[12, 5]</t>
+          <t>[12, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>[15, [0, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[13, 4]</t>
+          <t>[6, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>[9, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>[0, [3, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>[4, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>[14, 3]</t>
+          <t>[18, [2, 5], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>[15, 2]</t>
+          <t>[2, [1, 5], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>[5, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>[17, 0]</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>[9, 6]</t>
+          <t>[17, [0, 4], [2, 5]]</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[16, [1, 4], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[8, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[10, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[[2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 5], [3, 0], [3, 5], [3, 3], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[11, 6]</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>[9, 7]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[10, 6]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>[11, 5]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[12, 4]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>[13, 3]</t>
+          <t>[9, 8]</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[14, 2]</t>
+          <t>[10, 7]</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[15, 1]</t>
+          <t>[11, 6]</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>[16, 1]</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[16, 0]</t>
+          <t>[12, 5]</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[13, 4]</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[14, 3]</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[15, 2]</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[17, 0]</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>[8, 7]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[10, 5]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[11, 4]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[12, 3]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>[13, 2]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[14, 1]</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>[9, 5]</t>
+          <t>[9, 7]</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>[15, 0]</t>
+          <t>[10, 6]</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[11, 5]</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[12, 4]</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[13, 3]</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[14, 2]</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[15, 1]</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[16, 0]</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>[8, 6]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[10, 4]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>[12, 2]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>[13, 1]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>[14, 0]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[19, [3, 5], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>[14, [1, 4], [2, 1]]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>[3, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>[20, [3, 3], [2, 2]]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>[10, [1, 1], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>[5, [2, 0], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>[6, [1, 0], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>[12, [2, 2], [1, 5]]</t>
+          <t>[8, 7]</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>[17, [2, 5], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>[7, [0, 2], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>[4, [1, 2], [1, 1]]</t>
+          <t>[9, 6]</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[13, [0, 3], [2, 5]]</t>
+          <t>[10, 5]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>[9, [0, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>[1, [0, 5], [1, 4]]</t>
+          <t>[11, 4]</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>[11, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>[15, [0, 4], [0, 5]]</t>
+          <t>[12, 3]</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>[8, [0, 1], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>[16, [1, 5], [3, 5]]</t>
+          <t>[13, 2]</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>[2, [1, 3], [0, 3]]</t>
+          <t>[14, 1]</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 5], [2, 1], [0, 5], [3, 5], [3, 4], [3, 0], [3, 3], [2, 2], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
+          <t>[15, 0]</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>[12, 13]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>[7, 6]</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>[13, 12]</t>
+          <t>[8, 6]</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[8, 5]</t>
+          <t>[9, 5]</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>[9, 4]</t>
+          <t>[10, 4]</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>[10, 3]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>[11, 2]</t>
+          <t>[12, 2]</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[12, 1]</t>
+          <t>[13, 1]</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>[13, 0]</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>[6, 5]</t>
+          <t>[14, 0]</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[19, [3, 5], [3, 3]]</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>[12, 13]</t>
+          <t>[14, [1, 4], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[3, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>[20, [3, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[10, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>[5, [2, 0], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>[6, [1, 0], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>[12, [2, 2], [1, 5]]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[17, [2, 5], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>[7, [0, 2], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>[4, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[13, [0, 3], [2, 5]]</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[9, [0, 0], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>[1, [0, 5], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>[7, 5]</t>
+          <t>[11, [2, 1], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>[15, [0, 4], [0, 5]]</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[8, 4]</t>
+          <t>[8, [0, 1], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>[16, [1, 5], [3, 5]]</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[9, 3]</t>
+          <t>[2, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[10, 2]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [2, 3], [1, 5], [2, 5], [2, 1], [0, 5], [3, 5], [3, 4], [3, 0], [3, 3], [2, 2], [3, 2], [3, 1], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[11, 1]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>[12, 0]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[7, 4]</t>
+          <t>[7, 6]</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[8, 3]</t>
+          <t>[8, 5]</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>[9, 2]</t>
+          <t>[9, 4]</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>[10, 1]</t>
+          <t>[10, 3]</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>[11, 0]</t>
+          <t>[11, 2]</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[12, 1]</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[13, 0]</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>[6, 4]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>[7, 3]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[7, 5]</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[9, 1]</t>
+          <t>[8, 4]</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>[10, 0]</t>
+          <t>[9, 3]</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[14, 11]</t>
+          <t>[10, 2]</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[11, 1]</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[12, 0]</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[6, 5]</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>[12, 13]</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>[10, 15]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>[5, 4]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>[6, 3]</t>
+          <t>[6, 5]</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>[13, 12]</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[7, 2]</t>
+          <t>[7, 4]</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>[8, 1]</t>
+          <t>[8, 3]</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>[9, 0]</t>
+          <t>[9, 2]</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>[15, 10]</t>
+          <t>[10, 1]</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>[17, [3, 4], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>[3, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>[2, [0, 3], [0, 2]]</t>
+          <t>[11, 0]</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[1, [1, 4], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>[13, [2, 5], [3, 4]]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[22, [3, 1], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>[6, [0, 0], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>[12, [1, 5], [2, 5]]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[19, [3, 3], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>[5, [1, 0], [0, 1]]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>[0, [2, 4], [2, 1]]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>[9, [1, 3], [1, 5]]</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>[14, [2, 1], [3, 1]]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>[20, [2, 2], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>[16, [3, 5], [2, 4]]</t>
+          <t>[12, 13]</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>[7, [0, 1], [2, 0]]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[8, [1, 2], [2, 2]]</t>
+          <t>[6, 4]</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 4], [3, 1], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [3, 2], [3, 3], [4, 3], [4, 2], [4, 0]]</t>
+          <t>[7, 3]</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[9, 1]</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>[10, 15]</t>
+          <t>[10, 0]</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[9, 16]</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>[3, 1]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[5, 3]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[6, 2]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>[7, 1]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>[8, 0]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>[16, 9]</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>[3, 1]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[10, 15]</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[5, 4]</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[6, 3]</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[7, 2]</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>[9, 16]</t>
+          <t>[8, 1]</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[9, 0]</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[15, 10]</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>[5, 2]</t>
+          <t>[17, [3, 4], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>[3, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>[2, [0, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>[6, 1]</t>
+          <t>[1, [1, 4], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>[13, [2, 5], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>[7, 0]</t>
+          <t>[22, [3, 1], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>[6, [0, 0], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>[12, [1, 5], [2, 5]]</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[19, [3, 3], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>[5, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[0, [2, 4], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[9, [1, 3], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>[14, [2, 1], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[20, [2, 2], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>[16, [3, 5], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[7, [0, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>[7, 18]</t>
+          <t>[8, [1, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>[4, 2]</t>
+          <t>[[2, 1], [1, 0], [0, 2], [0, 0], [1, 1], [0, 1], [1, 2], [2, 0], [2, 2], [1, 5], [0, 4], [2, 3], [2, 5], [3, 4], [3, 1], [0, 5], [2, 4], [1, 3], [3, 0], [1, 4], [0, 3], [3, 2], [3, 3], [4, 3], [4, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>[5, 1]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>[6, 0]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>[18, 7]</t>
+          <t>[7, 1]</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>[10, 15]</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[9, 16]</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[5, 3]</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>[7, 18]</t>
+          <t>[6, 2]</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>[6, 19]</t>
+          <t>[7, 1]</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>[3, 2]</t>
+          <t>[8, 0]</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>[4, 1]</t>
+          <t>[16, 9]</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>[5, 0]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>[19, 6]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>[6, 19]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>[5, 20]</t>
+          <t>[9, 16]</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[20, 5]</t>
+          <t>[4, 3]</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>[3, [0, 0], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>[12, [2, 5], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>[9, [1, 5], [2, 4]]</t>
+          <t>[5, 2]</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[19, [1, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>[15, [0, 5], [3, 5]]</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>[17, [1, 3], [4, 2]]</t>
+          <t>[6, 1]</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>[21, [3, 2], [1, 5]]</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>[1, [1, 0], [0, 1]]</t>
+          <t>[7, 0]</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>[23, [4, 3], [1, 0]]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[13, [3, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>[6, [1, 2], [2, 1]]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[10, [0, 4], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>[16, [2, 4], [3, 3]]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[24, [4, 2], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>[22, [3, 3], [0, 4]]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>[5, [0, 1], [0, 5]]</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>[25, [4, 0], [1, 2]]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>[11, [2, 3], [2, 5]]</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>[4, [1, 1], [1, 3]]</t>
+          <t>[7, 18]</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>[2, [0, 2], [0, 0]]</t>
+          <t>[4, 2]</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>[0, [2, 1], [0, 2]]</t>
+          <t>[5, 1]</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>[20, [0, 3], [1, 4]]</t>
+          <t>[6, 0]</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 2], [3, 1], [3, 5], [3, 3], [4, 2], [3, 0], [4, 3], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
+          <t>[18, 7]</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>[5, 20]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>[4, 21]</t>
+          <t>[7, 18]</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>[2, 1]</t>
+          <t>[6, 19]</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>[3, 0]</t>
+          <t>[3, 2]</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>[21, 4]</t>
+          <t>[4, 1]</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[5, 0]</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>[4, 21]</t>
+          <t>[19, 6]</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>[3, 22]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>[22, 3]</t>
+          <t>[6, 19]</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[5, 20]</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>[3, 22]</t>
+          <t>[3, 1]</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>[1, 0]</t>
+          <t>[20, 5]</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>[23, 2]</t>
+          <t>[3, [0, 0], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>[12, [2, 5], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>[9, [1, 5], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>[2, 23]</t>
+          <t>[19, [1, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>[15, [0, 5], [3, 5]]</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>[17, [1, 3], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>[1, 24]</t>
+          <t>[21, [3, 2], [1, 5]]</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>[1, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>[0, 25]</t>
+          <t>[23, [4, 3], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>[24, 1]</t>
+          <t>[13, [3, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>[6, [1, 2], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>[25, 0]</t>
+          <t>[10, [0, 4], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>[16, [2, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>[1, 24]</t>
+          <t>[24, [4, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>[22, [3, 3], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>[0, 25]</t>
+          <t>[5, [0, 1], [0, 5]]</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>[25, [4, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B740" t="n">
-        <v>0.02667857401440627</v>
+          <t>[11, [2, 3], [2, 5]]</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>[4, [1, 1], [1, 3]]</t>
+        </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B741" t="n">
-        <v>255379.786015468</v>
+          <t>[2, [0, 2], [0, 0]]</t>
+        </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>move_fidelity</t>
-        </is>
-      </c>
-      <c r="B742" t="n">
-        <v>0.993551415633128</v>
+          <t>[0, [2, 1], [0, 2]]</t>
+        </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B743" t="n">
-        <v>104</v>
+          <t>[20, [0, 3], [1, 4]]</t>
+        </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B744" t="n">
-        <v>617</v>
+          <t>[[0, 2], [0, 1], [0, 0], [0, 3], [1, 3], [0, 5], [2, 1], [2, 0], [2, 2], [2, 4], [2, 3], [2, 5], [3, 4], [3, 2], [3, 1], [3, 5], [3, 3], [4, 2], [3, 0], [4, 3], [1, 4], [1, 5], [0, 4], [1, 0], [1, 1], [1, 2]]</t>
+        </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B745" t="n">
-        <v>11</v>
+          <t>[2, 1]</t>
+        </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B746" t="n">
-        <v>0.1039919853210449</v>
+          <t>[3, 0]</t>
+        </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
+          <t>[5, 20]</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>[4, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>[2, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>[3, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>[21, 4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>[4, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>[22, 3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>[3, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>[1, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>[23, 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>[2, 23]</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>[1, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>[0, 25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>[24, 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>[25, 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>[1, 24]</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>[0, 25]</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0.02667589206324703</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>255530.5860154681</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>0.993551415633128</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>0.1923232078552246</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B747" t="inlineStr">
+      <c r="B776" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
+      <c r="C776" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D747" t="inlineStr">
+      <c r="D776" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E747" t="inlineStr">
+      <c r="E776" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F747" t="inlineStr">
+      <c r="F776" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G747" t="inlineStr">
+      <c r="G776" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H747" t="inlineStr">
+      <c r="H776" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I747" t="inlineStr">
+      <c r="I776" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J747" t="inlineStr">
+      <c r="J776" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K747" t="inlineStr">
+      <c r="K776" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L747" t="inlineStr">
+      <c r="L776" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M747" t="inlineStr">
+      <c r="M776" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N747" t="inlineStr">
+      <c r="N776" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
